--- a/itbooks.xlsx
+++ b/itbooks.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8474" uniqueCount="8473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8475" uniqueCount="8474">
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>practical-domain-driven-design-in-enterprise-java</t>
   </si>
   <si>
     <t>serverless-programming-cookbook</t>
@@ -25790,7 +25793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A8474"/>
+  <dimension ref="A1:A8475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -50293,7 +50296,7 @@
     </row>
     <row r="4900" spans="1:1">
       <c r="A4900" t="s">
-        <v>4898</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="4901" spans="1:1">
@@ -68164,6 +68167,11 @@
     <row r="8474" spans="1:1">
       <c r="A8474" t="s">
         <v>8472</v>
+      </c>
+    </row>
+    <row r="8475" spans="1:1">
+      <c r="A8475" t="s">
+        <v>8473</v>
       </c>
     </row>
   </sheetData>
